--- a/TestData/OpenEMRTemplate.xlsx
+++ b/TestData/OpenEMRTemplate.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTEA\Testing\Robot_WorkspaceTesting\OpenEmrProject\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19530" windowHeight="4260"/>
   </bookViews>
   <sheets>
     <sheet name="Verify_Invalid_Credentials_Temp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,13 +37,13 @@
     <t>admin</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> English (Indian)</t>
-  </si>
-  <si>
     <t>Invalid username or password</t>
+  </si>
+  <si>
+    <t>Default - English (Standard)</t>
+  </si>
+  <si>
+    <t>pass123</t>
   </si>
 </sst>
 </file>
@@ -368,7 +364,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,13 +394,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
